--- a/TestCase Practice.xlsx
+++ b/TestCase Practice.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitheshkumar.eshwaran@expleogroup.com\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitheshkumar.eshwaran@expleogroup.com\Desktop\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A753361-CD8A-4C12-A2D6-4A005F479653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE91E19-6C50-48E3-B1C1-EFB4BC65748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{138F9207-0BD1-4194-91BB-B8F6F25E2993}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>To check pencil is having specified color or not</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>To check user can able to overWrite a content using pencil</t>
+  </si>
+  <si>
+    <t>To check user can abe to write  in light shade</t>
+  </si>
+  <si>
+    <t>To check user can able to see the text if we write in light shade</t>
+  </si>
+  <si>
+    <t>To Check whether the pencil will perform the same even though the user uses it continuously for hours.</t>
+  </si>
+  <si>
+    <t>To check user can able to write a text upto which time if he contionusly write</t>
   </si>
 </sst>
 </file>
@@ -194,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -207,9 +221,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -526,221 +539,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF6DE9F-F9CD-4851-B91C-BBE90FEFD7FD}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="79.90625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="88.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="1" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase Practice.xlsx
+++ b/TestCase Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitheshkumar.eshwaran@expleogroup.com\Desktop\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE91E19-6C50-48E3-B1C1-EFB4BC65748A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4770C5F-EBAE-4C9D-98D3-0141F1BEB1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{138F9207-0BD1-4194-91BB-B8F6F25E2993}"/>
   </bookViews>
@@ -221,10 +221,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF6DE9F-F9CD-4851-B91C-BBE90FEFD7FD}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -756,22 +755,22 @@
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>

--- a/TestCase Practice.xlsx
+++ b/TestCase Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitheshkumar.eshwaran@expleogroup.com\Desktop\Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4770C5F-EBAE-4C9D-98D3-0141F1BEB1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A877EC-AC3B-4D8A-824B-A96222884A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{138F9207-0BD1-4194-91BB-B8F6F25E2993}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF6DE9F-F9CD-4851-B91C-BBE90FEFD7FD}">
   <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
